--- a/data/all_stations_2025-11-13.xlsx
+++ b/data/all_stations_2025-11-13.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78360EA-46B3-4D9A-AD01-24D0AA11EA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37CE1CF-1C7B-4929-9E0D-ADB6068EEF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="data" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$K$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$K$225</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2684,7 +2684,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4980,6 +4980,9 @@
       <c r="C77" t="s">
         <v>701</v>
       </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
       <c r="E77" t="s">
         <v>702</v>
       </c>
@@ -9610,17 +9613,64 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K224" xr:uid="{8F9C49C6-D2D5-48DC-90F7-163878AA0983}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K225">
-      <sortCondition ref="A1:A224"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:K225" xr:uid="{8F9C49C6-D2D5-48DC-90F7-163878AA0983}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <gdc15e87e6184dc285cecc59dfe3e409 xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </gdc15e87e6184dc285cecc59dfe3e409>
+    <TaxCatchAll xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
+      <Value>620</Value>
+      <Value>619</Value>
+      <Value>219</Value>
+      <Value>536</Value>
+    </TaxCatchAll>
+    <a707137999d24c5390df78a72943486a xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Stasjonsnett og prøvetakere</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">dd0207a7-2d0a-4417-838c-fdce6848318b</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Kalking</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6d74b546-8f21-4782-aa30-c3b6c259d9bc</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Vannkjemikontrollen</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8379c43c-5bcc-430c-8c15-d982cef44326</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Avtale 2016</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">426aae43-8bc2-4ddf-b2c6-6c511db79aef</TermId>
+        </TermInfo>
+      </Terms>
+    </a707137999d24c5390df78a72943486a>
+    <AvtaltDato xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Miljødirektoratet Dokument" ma:contentTypeID="0x010100D14BD004BF1C4459B890F3727F0925800030788E1E5F06E4499248722442C9E1E2" ma:contentTypeVersion="4" ma:contentTypeDescription="Opprett et nytt dokument. " ma:contentTypeScope="" ma:versionID="31d2f06e1319184035b49374dedadd14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99b93dda-0db1-4804-bcd9-79ac3408f7b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b39a69652e56cca026e8bfba402999b" ns2:_="">
     <xsd:import namespace="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
@@ -9786,58 +9836,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <gdc15e87e6184dc285cecc59dfe3e409 xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </gdc15e87e6184dc285cecc59dfe3e409>
-    <TaxCatchAll xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
-      <Value>620</Value>
-      <Value>619</Value>
-      <Value>219</Value>
-      <Value>536</Value>
-    </TaxCatchAll>
-    <a707137999d24c5390df78a72943486a xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Stasjonsnett og prøvetakere</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">dd0207a7-2d0a-4417-838c-fdce6848318b</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Kalking</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6d74b546-8f21-4782-aa30-c3b6c259d9bc</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Vannkjemikontrollen</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8379c43c-5bcc-430c-8c15-d982cef44326</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Avtale 2016</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">426aae43-8bc2-4ddf-b2c6-6c511db79aef</TermId>
-        </TermInfo>
-      </Terms>
-    </a707137999d24c5390df78a72943486a>
-    <AvtaltDato xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E2C70A-39DB-4E9F-AC55-CF83C6FAF41A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045B6229-1055-4164-AB1C-6A3398378E43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{465F94C6-DADA-41F7-9419-4CB4FA36834F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9853,36 +9884,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045B6229-1055-4164-AB1C-6A3398378E43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E2C70A-39DB-4E9F-AC55-CF83C6FAF41A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>